--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220519_130510.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220519_130510.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -769,7 +769,7 @@
     <t>매직스트로베리 사운드</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>빅히트</t>
@@ -815,9 +815,6 @@
   </si>
   <si>
     <t>BRANDNEW MUSIC</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -1254,7 +1251,7 @@
         <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1280,7 +1277,7 @@
         <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1332,7 +1329,7 @@
         <v>234</v>
       </c>
       <c r="H5" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1358,7 +1355,7 @@
         <v>235</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1384,7 +1381,7 @@
         <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1410,7 +1407,7 @@
         <v>237</v>
       </c>
       <c r="H8" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1436,7 +1433,7 @@
         <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1462,7 +1459,7 @@
         <v>237</v>
       </c>
       <c r="H10" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1566,7 +1563,7 @@
         <v>242</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1592,7 +1589,7 @@
         <v>243</v>
       </c>
       <c r="H15" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1618,7 +1615,7 @@
         <v>235</v>
       </c>
       <c r="H16" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1644,7 +1641,7 @@
         <v>232</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1670,7 +1667,7 @@
         <v>244</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1696,7 +1693,7 @@
         <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1722,7 +1719,7 @@
         <v>245</v>
       </c>
       <c r="H20" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1748,7 +1745,7 @@
         <v>246</v>
       </c>
       <c r="H21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1774,7 +1771,7 @@
         <v>247</v>
       </c>
       <c r="H22" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1800,7 +1797,7 @@
         <v>232</v>
       </c>
       <c r="H23" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1826,7 +1823,7 @@
         <v>246</v>
       </c>
       <c r="H24" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1852,7 +1849,7 @@
         <v>235</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1878,7 +1875,7 @@
         <v>248</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1904,7 +1901,7 @@
         <v>249</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1930,7 +1927,7 @@
         <v>250</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1956,7 +1953,7 @@
         <v>251</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1982,7 +1979,7 @@
         <v>237</v>
       </c>
       <c r="H30" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2008,7 +2005,7 @@
         <v>232</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2060,7 +2057,7 @@
         <v>234</v>
       </c>
       <c r="H33" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2112,7 +2109,7 @@
         <v>232</v>
       </c>
       <c r="H35" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2164,7 +2161,7 @@
         <v>237</v>
       </c>
       <c r="H37" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2190,7 +2187,7 @@
         <v>249</v>
       </c>
       <c r="H38" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2242,7 +2239,7 @@
         <v>253</v>
       </c>
       <c r="H40" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2268,7 +2265,7 @@
         <v>254</v>
       </c>
       <c r="H41" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2294,7 +2291,7 @@
         <v>255</v>
       </c>
       <c r="H42" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2346,7 +2343,7 @@
         <v>238</v>
       </c>
       <c r="H44" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2372,7 +2369,7 @@
         <v>256</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2398,7 +2395,7 @@
         <v>257</v>
       </c>
       <c r="H46" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2424,7 +2421,7 @@
         <v>258</v>
       </c>
       <c r="H47" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2450,7 +2447,7 @@
         <v>238</v>
       </c>
       <c r="H48" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2476,7 +2473,7 @@
         <v>259</v>
       </c>
       <c r="H49" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2502,7 +2499,7 @@
         <v>232</v>
       </c>
       <c r="H50" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2528,7 +2525,7 @@
         <v>238</v>
       </c>
       <c r="H51" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2606,7 +2603,7 @@
         <v>231</v>
       </c>
       <c r="H54" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2632,7 +2629,7 @@
         <v>259</v>
       </c>
       <c r="H55" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2658,7 +2655,7 @@
         <v>238</v>
       </c>
       <c r="H56" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2684,7 +2681,7 @@
         <v>260</v>
       </c>
       <c r="H57" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2710,7 +2707,7 @@
         <v>261</v>
       </c>
       <c r="H58" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2736,7 +2733,7 @@
         <v>259</v>
       </c>
       <c r="H59" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2762,7 +2759,7 @@
         <v>262</v>
       </c>
       <c r="H60" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2788,7 +2785,7 @@
         <v>251</v>
       </c>
       <c r="H61" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2814,7 +2811,7 @@
         <v>263</v>
       </c>
       <c r="H62" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2866,7 +2863,7 @@
         <v>264</v>
       </c>
       <c r="H64" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2918,7 +2915,7 @@
         <v>238</v>
       </c>
       <c r="H66" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2944,7 +2941,7 @@
         <v>242</v>
       </c>
       <c r="H67" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2970,7 +2967,7 @@
         <v>265</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2996,7 +2993,7 @@
         <v>238</v>
       </c>
       <c r="H69" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3022,7 +3019,7 @@
         <v>242</v>
       </c>
       <c r="H70" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3048,7 +3045,7 @@
         <v>238</v>
       </c>
       <c r="H71" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3074,7 +3071,7 @@
         <v>266</v>
       </c>
       <c r="H72" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3100,7 +3097,7 @@
         <v>238</v>
       </c>
       <c r="H73" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3123,10 +3120,10 @@
         <v>214</v>
       </c>
       <c r="G74" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="H74" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3152,7 +3149,7 @@
         <v>250</v>
       </c>
       <c r="H75" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3178,7 +3175,7 @@
         <v>238</v>
       </c>
       <c r="H76" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3201,10 +3198,10 @@
         <v>217</v>
       </c>
       <c r="G77" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H77" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3227,10 +3224,10 @@
         <v>218</v>
       </c>
       <c r="G78" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H78" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3253,10 +3250,10 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H79" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3279,10 +3276,10 @@
         <v>219</v>
       </c>
       <c r="G80" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H80" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3334,7 +3331,7 @@
         <v>265</v>
       </c>
       <c r="H82" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3360,7 +3357,7 @@
         <v>238</v>
       </c>
       <c r="H83" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3383,10 +3380,10 @@
         <v>223</v>
       </c>
       <c r="G84" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H84" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3438,7 +3435,7 @@
         <v>259</v>
       </c>
       <c r="H86" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3461,10 +3458,10 @@
         <v>225</v>
       </c>
       <c r="G87" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="H87" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3490,7 +3487,7 @@
         <v>265</v>
       </c>
       <c r="H88" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3542,7 +3539,7 @@
         <v>259</v>
       </c>
       <c r="H90" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3591,10 +3588,10 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H92" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3617,10 +3614,10 @@
         <v>227</v>
       </c>
       <c r="G93" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H93" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3643,10 +3640,10 @@
         <v>228</v>
       </c>
       <c r="G94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H94" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3672,7 +3669,7 @@
         <v>266</v>
       </c>
       <c r="H95" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3698,7 +3695,7 @@
         <v>231</v>
       </c>
       <c r="H96" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3724,7 +3721,7 @@
         <v>263</v>
       </c>
       <c r="H97" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3750,7 +3747,7 @@
         <v>232</v>
       </c>
       <c r="H98" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3776,7 +3773,7 @@
         <v>232</v>
       </c>
       <c r="H99" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3799,10 +3796,10 @@
         <v>229</v>
       </c>
       <c r="G100" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="H100" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3828,7 +3825,7 @@
         <v>251</v>
       </c>
       <c r="H101" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
